--- a/1. Analyse/Arbeitspakete v0.1.xlsx
+++ b/1. Analyse/Arbeitspakete v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Phasen</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Kommentar</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>1. Analyse</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>Übernahme Antrag</t>
   </si>
   <si>
-    <t>Workflow</t>
-  </si>
-  <si>
     <t>Meilensteine</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>Erweitertes Wasserfallmodell</t>
   </si>
   <si>
-    <t>Home Doku</t>
-  </si>
-  <si>
     <t>Grobes Use Case</t>
   </si>
   <si>
@@ -85,19 +76,7 @@
     <t>Keine Probleme</t>
   </si>
   <si>
-    <t>WA-Machbarkeitsstudie</t>
-  </si>
-  <si>
-    <t>Lohn</t>
-  </si>
-  <si>
-    <t>WA-Kostenplan</t>
-  </si>
-  <si>
-    <t>WA-BEP-Analyse</t>
-  </si>
-  <si>
-    <t>WA-Nutzwertanalyse</t>
+    <t>Wirtschaftlichkeits-Analyse</t>
   </si>
   <si>
     <t>Fragenkatalog</t>
@@ -146,9 +125,6 @@
   </si>
   <si>
     <t>Datenbankmodell(ERD, ERM)</t>
-  </si>
-  <si>
-    <t>Umantis besitzt bereits fertiggestellte Datenbank?</t>
   </si>
   <si>
     <t>3. Entwurf</t>
@@ -213,11 +189,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -233,12 +210,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -258,6 +229,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -354,63 +326,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -418,31 +390,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,23 +422,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,25 +519,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.6479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.969387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="50.0204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.9081632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.0204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.9081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="49.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,24 +562,24 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="3"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <f aca="false">SUM(E2:E10)</f>
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <f aca="false">SUM(F2:F10)</f>
+        <v>2.25</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <f aca="false">SUM(E2:E13)</f>
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <f aca="false">SUM(F2:F13)</f>
-        <v>2.5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0.5</v>
@@ -616,18 +588,18 @@
         <v>0.25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="n">
         <v>1</v>
@@ -636,9 +608,11 @@
         <v>0.25</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="11"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
@@ -654,16 +628,18 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="13"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>0</v>
@@ -672,18 +648,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="10" t="n">
         <v>0</v>
@@ -692,16 +668,18 @@
         <v>0.75</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6" s="11"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="10" t="n">
         <v>0.5</v>
@@ -710,96 +688,90 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H7" s="11"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="H8" s="11"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="0"/>
-      <c r="M9" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <f aca="false">SUM(E12:E21)</f>
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <f aca="false">SUM(F12:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="0"/>
-      <c r="M10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,46 +779,40 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <f aca="false">SUM(E15:E24)</f>
-        <v>15</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <f aca="false">SUM(F15:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="9"/>
       <c r="H15" s="11"/>
     </row>
@@ -855,10 +821,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="9"/>
@@ -869,10 +835,10 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="9"/>
@@ -883,7 +849,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" s="10" t="n">
         <v>2</v>
@@ -897,24 +863,27 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="11"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="9"/>
@@ -924,122 +893,123 @@
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="10" t="n">
+      <c r="D21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="19"/>
+      <c r="A22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <f aca="false">SUM(E23:E26)</f>
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <f aca="false">SUM(F23:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="9"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="15" t="n">
+      <c r="D24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <f aca="false">SUM(E26:E29)</f>
-        <v>8</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <f aca="false">SUM(F26:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="7" t="n">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="9"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="11"/>
+      <c r="A27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="A28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <f aca="false">SUM(E28:E29)</f>
+        <v>15</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <f aca="false">SUM(F28:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="9"/>
       <c r="H28" s="11"/>
     </row>
@@ -1047,19 +1017,19 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="10"/>
+      <c r="D29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15"/>
       <c r="G29" s="9"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -1071,21 +1041,21 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B31" s="5" t="n">
         <f aca="false">SUM(E31:E32)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C31" s="5" t="n">
         <f aca="false">SUM(F31:F32)</f>
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="9"/>
@@ -1096,10 +1066,10 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E32" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="9"/>
@@ -1107,7 +1077,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -1119,21 +1089,21 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B34" s="5" t="n">
         <f aca="false">SUM(E34:E35)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="5" t="n">
         <f aca="false">SUM(F34:F35)</f>
         <v>0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="9"/>
@@ -1144,10 +1114,10 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E35" s="15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="9"/>
@@ -1155,7 +1125,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -1166,144 +1136,100 @@
       <c r="H36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="5" t="n">
-        <f aca="false">SUM(E37:E38)</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <f aca="false">SUM(F37:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" s="7"/>
+      <c r="A37" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="21" t="n">
+        <f aca="false">E37</f>
+        <v>10</v>
+      </c>
+      <c r="C37" s="21" t="n">
+        <f aca="false">SUM(F37)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" s="23"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="11"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="15" t="n">
+      <c r="A38" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="21" t="n">
+        <f aca="false">E39</f>
         <v>3</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="C39" s="21" t="n">
+        <f aca="false">SUM(F39)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="21" t="n">
-        <f aca="false">E40</f>
-        <v>10</v>
-      </c>
-      <c r="C40" s="21" t="n">
-        <f aca="false">SUM(F40)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="24"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="21" t="n">
-        <f aca="false">E42</f>
-        <v>3</v>
-      </c>
-      <c r="C42" s="21" t="n">
-        <f aca="false">SUM(F42)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="26" t="n">
-        <f aca="false">SUM(B2:B42)</f>
+      <c r="A40" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="26" t="n">
+        <f aca="false">SUM(B2:B39)</f>
         <v>70</v>
       </c>
-      <c r="C43" s="26" t="n">
-        <f aca="false">SUM(C2:C42)</f>
-        <v>2.5</v>
-      </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28" t="n">
-        <f aca="false">SUM(E2:E42)</f>
+      <c r="C40" s="26" t="n">
+        <f aca="false">SUM(C2:C39)</f>
+        <v>2.25</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28" t="n">
+        <f aca="false">SUM(E2:E39)</f>
         <v>70</v>
       </c>
-      <c r="F43" s="28" t="n">
-        <f aca="false">SUM(F2:F42)</f>
-        <v>2.5</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="29"/>
+      <c r="F40" s="28" t="n">
+        <f aca="false">SUM(F2:F39)</f>
+        <v>2.25</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:C24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
@@ -1313,11 +1239,7 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A38:H38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
